--- a/data/hotels_by_city/Denver/Denver_shard_259.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_259.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33468-d261397-Reviews-Super_8_Henderson_North_East_Denver-Henderson_Colorado.html</t>
   </si>
   <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Henderson-Hotels-Super-8-HendersonNortheast-Denver-Area.h904258.Hotel-Information?chkin=4%2F22%2F2018&amp;chkout=4%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1523586656244&amp;regionId=178254&amp;vip=false&amp;c=20d22212-04a8-4dd4-b6b5-bac147270a7c&amp;mctc=9&amp;exp_dp=61&amp;exp_ts=1523586656914&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,2033 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r600033797-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>33468</t>
+  </si>
+  <si>
+    <t>261397</t>
+  </si>
+  <si>
+    <t>600033797</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Good motel but watch out when charging electronics</t>
+  </si>
+  <si>
+    <t>This is a good, clean motel. It is basic but has everything a traveller needs. Our room and bathroom were clean and the beds were actually very nice. It is right next to a busy road and parking lot used for truck drivers training (CDL)  but whatever noise there is is drowned out by the A/C.One word of caution: there is a central switch that shuts off all lights in the room. This is convenient but what I did not realize is that it also shuts down all outlets. We plugged in both of our phones and computers and a tablet and expected them to be charged in the morning. Fortunately, I woke up in the middle of the night and realized that all outlets were not functional. So I turned on the master switch and then turned off all lights individually. Now tour devices started being charged.The master switch is on the wall in the 'main room,' not close to the door (there is another switch there but that controls only the light by the door/sink).This is not a criticism of the hotel but if you don't know this you will be disappointed in the morning when you find that none of your devices was charged over night. I hope this is useful.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a good, clean motel. It is basic but has everything a traveller needs. Our room and bathroom were clean and the beds were actually very nice. It is right next to a busy road and parking lot used for truck drivers training (CDL)  but whatever noise there is is drowned out by the A/C.One word of caution: there is a central switch that shuts off all lights in the room. This is convenient but what I did not realize is that it also shuts down all outlets. We plugged in both of our phones and computers and a tablet and expected them to be charged in the morning. Fortunately, I woke up in the middle of the night and realized that all outlets were not functional. So I turned on the master switch and then turned off all lights individually. Now tour devices started being charged.The master switch is on the wall in the 'main room,' not close to the door (there is another switch there but that controls only the light by the door/sink).This is not a criticism of the hotel but if you don't know this you will be disappointed in the morning when you find that none of your devices was charged over night. I hope this is useful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r600004629-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>600004629</t>
+  </si>
+  <si>
+    <t>Unexpected pleasure</t>
+  </si>
+  <si>
+    <t>So I don't normally stay at Super 8; but I must say my room was clean, fashionable and comfortable. When in Henderson, or passing through I think you'll like your stay here. No frills but a good night sleep and a lite breakfast made this place just the thing for two weary travelers.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r598000163-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>598000163</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Great People</t>
+  </si>
+  <si>
+    <t>I had to stay at this location for 6 weeks. In that time I was treated with respect, the rooms were comfortable and clean, and the staff was always helpful and friendly. I want to give special thanks to Steve and Margaret, who were especially helpful with any request I had. I would definitely recommend this location to anyone travelling in the north metro area.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r587720545-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>587720545</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Would Definitely Stay Again!</t>
+  </si>
+  <si>
+    <t>My family stayed at this location for two nights. We checked in after a very long trip. We read some of the reviews but were leery as some were bad.The hotel was extremely clean for the price and I would definitely recommend staying here to anyone! Way better to stay here then to go to some of the other hotels in Denver. We didn’t find a single thing wrong in our room or have a single negative thing to say about our stay. Paul, Margaret and Steve were very courteous and professional yet down to earth and they helped us with everything we needed for a great stay! The only bad thing I could say is that the breakfast could use a little work but all in all, can’t beat the price for this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stayed at this location for two nights. We checked in after a very long trip. We read some of the reviews but were leery as some were bad.The hotel was extremely clean for the price and I would definitely recommend staying here to anyone! Way better to stay here then to go to some of the other hotels in Denver. We didn’t find a single thing wrong in our room or have a single negative thing to say about our stay. Paul, Margaret and Steve were very courteous and professional yet down to earth and they helped us with everything we needed for a great stay! The only bad thing I could say is that the breakfast could use a little work but all in all, can’t beat the price for this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r587633410-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>587633410</t>
+  </si>
+  <si>
+    <t>Not pleased</t>
+  </si>
+  <si>
+    <t>loud noise and vibration in room 111, keeps you awake all night, sound like a jack hammer.  Bathroom is so small that you need to squeeze between tub and toilet in order to open and close the door.  Bathroom had something,,,,, splashed all over wall, looked like someone had a accident and it was never cleaned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r583400076-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>583400076</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Wont be back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To start with we walked into room 202 and spotted things left from other guests.. so I kindly walked down to front desk and handed it to them. He never offered to clean the room this time so I suggested it to him. Which never happened... sheets had blood on them.. ac is broken..bed was extremely hard and squeaky  (like needed retired in the 70s). I wouldnt recommend this place to anyone. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r574394237-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>574394237</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>All the staff was super friendly. In particular, Veronica, was more than helpful when it came to meeting my needs. This motel includes a great breakfast and clean facilities. You have a nice view of the mountains from here and the convenience of being located right off the interstate.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r573623329-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>573623329</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Never again would i stay here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible customer service!!! Front desk clerk was not knowledgeable, rude, unprofessional and argumentative. I was finally forced to tell her i was tired and just wanted to rest. She showed her rudeness and lack of training from the beginning. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r572878440-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>572878440</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Veronica at the front desk is very pleasant and helpful the rooms are clean and location is great had an excellent stay thanks super 8 keep up the good work! The breakfast is also good. Overall the value for this location is great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r555176498-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>555176498</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Super 8 staff and hotel</t>
+  </si>
+  <si>
+    <t>First off this is probably one of the friendliest and helpful staff that I've ever encountered. Shelly in the office is a sheet pleasure to deal with. Always willing to help a guest. The rest of the staff, also pleasant, could take a page out of her book on customer service. Thanks Shelly As for the all around review of the Hotel. This is a very clean and well organized hotel. Even the grounds are clean and well maintained. The cleanliness is one of the main reasons we looked into staying here. Having a clean environment and a knowledgeable,friendly staff makes this one of the best hotels that I've stayed in. I would recommend this hotel to everyone.  If you are wanting the best of staff and the hotel this is the place you want to stay. If your coming to Colorado I would tell you that this is the hotel you want to stay at. I will continue to  stay at this hotel.Thanks to the staff at Super 8 Henderson Northeast. Great job keep it upMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>First off this is probably one of the friendliest and helpful staff that I've ever encountered. Shelly in the office is a sheet pleasure to deal with. Always willing to help a guest. The rest of the staff, also pleasant, could take a page out of her book on customer service. Thanks Shelly As for the all around review of the Hotel. This is a very clean and well organized hotel. Even the grounds are clean and well maintained. The cleanliness is one of the main reasons we looked into staying here. Having a clean environment and a knowledgeable,friendly staff makes this one of the best hotels that I've stayed in. I would recommend this hotel to everyone.  If you are wanting the best of staff and the hotel this is the place you want to stay. If your coming to Colorado I would tell you that this is the hotel you want to stay at. I will continue to  stay at this hotel.Thanks to the staff at Super 8 Henderson Northeast. Great job keep it upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r554401778-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>554401778</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Great staff and General Manager!!!</t>
+  </si>
+  <si>
+    <t>We booked a room here and the General Manager ( Paul )was very accomodating and understanding with our situation.  He was helpful and takes very good care of his customers.  I would recommend staying here with the great service they offer.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r552831875-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>552831875</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Yuck! Friendly people!! ;)</t>
+  </si>
+  <si>
+    <t>I am an over the road truck driver who stays in hotels frequently. I've had nothing but good experiences here, and have made it my norm when I'm in town.
+I noticed yesterday that my car tire was losing air again, so I took it to the shop and had it replaced. When I went to leave this morning, that very tire was flat as all get out. 
+I had no time to get it fixed, nor have my car towed. I needed to be on my yard for Mississippi in a half hour. 
+Hotel parking is important always, that's why they ask that you describe your vehicle at check in. My car was right up front. 
+I ran in and explained my situation to a young lady named Veronica. 
+Not only did she say she'd get it cleared with the manager when he came in, even though it would be several days before I'd be able to return, but she was super friendly about it too. 
+While I wanted to bang my head on the counter and feel sorry for myself, she just remarked that it was a good thing that it was out front. More eyes, more traffic, etc. 
+She was an absolute doll, when I just wanted to be a crybaby. 
+Thank goodness for her!! 
+I can honestly say though, everyone on this property has been very nice to me during my stays here. 
+The rooms are...I am an over the road truck driver who stays in hotels frequently. I've had nothing but good experiences here, and have made it my norm when I'm in town.I noticed yesterday that my car tire was losing air again, so I took it to the shop and had it replaced. When I went to leave this morning, that very tire was flat as all get out. I had no time to get it fixed, nor have my car towed. I needed to be on my yard for Mississippi in a half hour. Hotel parking is important always, that's why they ask that you describe your vehicle at check in. My car was right up front. I ran in and explained my situation to a young lady named Veronica. Not only did she say she'd get it cleared with the manager when he came in, even though it would be several days before I'd be able to return, but she was super friendly about it too. While I wanted to bang my head on the counter and feel sorry for myself, she just remarked that it was a good thing that it was out front. More eyes, more traffic, etc. She was an absolute doll, when I just wanted to be a crybaby. Thank goodness for her!! I can honestly say though, everyone on this property has been very nice to me during my stays here. The rooms are clean and quiet. I'm close to work. It's a great place. If they are booked up, I run to the Super 8 in Brighton. Thank you again Veronica!! You saved the day for me, you're my hero!! I'll definitely be back, and not just for my car. Lol!!MichelleMoreShow less</t>
+  </si>
+  <si>
+    <t>I am an over the road truck driver who stays in hotels frequently. I've had nothing but good experiences here, and have made it my norm when I'm in town.
+I noticed yesterday that my car tire was losing air again, so I took it to the shop and had it replaced. When I went to leave this morning, that very tire was flat as all get out. 
+I had no time to get it fixed, nor have my car towed. I needed to be on my yard for Mississippi in a half hour. 
+Hotel parking is important always, that's why they ask that you describe your vehicle at check in. My car was right up front. 
+I ran in and explained my situation to a young lady named Veronica. 
+Not only did she say she'd get it cleared with the manager when he came in, even though it would be several days before I'd be able to return, but she was super friendly about it too. 
+While I wanted to bang my head on the counter and feel sorry for myself, she just remarked that it was a good thing that it was out front. More eyes, more traffic, etc. 
+She was an absolute doll, when I just wanted to be a crybaby. 
+Thank goodness for her!! 
+I can honestly say though, everyone on this property has been very nice to me during my stays here. 
+The rooms are...I am an over the road truck driver who stays in hotels frequently. I've had nothing but good experiences here, and have made it my norm when I'm in town.I noticed yesterday that my car tire was losing air again, so I took it to the shop and had it replaced. When I went to leave this morning, that very tire was flat as all get out. I had no time to get it fixed, nor have my car towed. I needed to be on my yard for Mississippi in a half hour. Hotel parking is important always, that's why they ask that you describe your vehicle at check in. My car was right up front. I ran in and explained my situation to a young lady named Veronica. Not only did she say she'd get it cleared with the manager when he came in, even though it would be several days before I'd be able to return, but she was super friendly about it too. While I wanted to bang my head on the counter and feel sorry for myself, she just remarked that it was a good thing that it was out front. More eyes, more traffic, etc. She was an absolute doll, when I just wanted to be a crybaby. Thank goodness for her!! I can honestly say though, everyone on this property has been very nice to me during my stays here. The rooms are clean and quiet. I'm close to work. It's a great place. If they are booked up, I run to the Super 8 in Brighton. Thank you again Veronica!! You saved the day for me, you're my hero!! I'll definitely be back, and not just for my car. Lol!!MichelleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r541481599-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>541481599</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>Very nice people.  A nice clean room. The staff was very accommodating. My tv did not work but was fixed quickly. Enjoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice and clean place to stay. My tv was not working and the front desk guy came quickly and fixed it. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r534231715-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>534231715</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r532096317-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>532096317</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r516493477-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>516493477</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r516451464-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>516451464</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r508248114-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>508248114</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r504061001-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>504061001</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Horrible, awful and disgusting behavior from the front desk staff</t>
+  </si>
+  <si>
+    <t>Was treated very poorly, was accused of doing illegal things, was called a liar. All because Myself and 4 children came in through the back of the hotel where the pool is and was greeted by a rude man upon entry asked what room number I was and told I needed to check out now! Called a liar  because I have 4 children with me two whom belonged to a friend that was going to checkIn later. We were in town for regionals/jr olypics softball tournament and my other daughter for triple Crown  world series of softball tournament. I was questioned why I had so many kids, I explained to them that their parents were on their way. I was called a liar. I was told I had to wait outside with the two "extra children till their parents arrived mind you it was 11 at night. The girls were upset, and crying we basically were kicked out. All the girls were in softball uniforms. But I was doing "illegal stuff". MoreShow less</t>
+  </si>
+  <si>
+    <t>Was treated very poorly, was accused of doing illegal things, was called a liar. All because Myself and 4 children came in through the back of the hotel where the pool is and was greeted by a rude man upon entry asked what room number I was and told I needed to check out now! Called a liar  because I have 4 children with me two whom belonged to a friend that was going to checkIn later. We were in town for regionals/jr olypics softball tournament and my other daughter for triple Crown  world series of softball tournament. I was questioned why I had so many kids, I explained to them that their parents were on their way. I was called a liar. I was told I had to wait outside with the two "extra children till their parents arrived mind you it was 11 at night. The girls were upset, and crying we basically were kicked out. All the girls were in softball uniforms. But I was doing "illegal stuff". More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r500442237-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>500442237</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r499261145-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>499261145</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Not terrible</t>
+  </si>
+  <si>
+    <t>Room was clean but I accidentally booked a smoking room. It smelled awful and there were burn marks on the bathtub. The breakfast wasn't much but I guess it was better than nothing. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean but I accidentally booked a smoking room. It smelled awful and there were burn marks on the bathtub. The breakfast wasn't much but I guess it was better than nothing. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r491612099-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>491612099</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r489973247-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>489973247</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I had stayed here before 10-15 years ago, and the price had not gone up much. Compared to other motels in the area, it was much more reasonable. The room was more spacious than I remember, and thus expected. MoreShow less</t>
+  </si>
+  <si>
+    <t>I had stayed here before 10-15 years ago, and the price had not gone up much. Compared to other motels in the area, it was much more reasonable. The room was more spacious than I remember, and thus expected. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r489730284-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>489730284</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r487146795-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>487146795</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>O.K. Stay</t>
+  </si>
+  <si>
+    <t>This would be a pretty nice $65.00 motel, but it wasn't worth the $100.00 that I paid.  There were a lot of people stuck in Denver due to the big snow storm, so I'm sure they took advantage of that.  Anyway, the room wasn't bad.  It was recently painted, because the masking tape was still on the light fixtures.  It was clean, but the sheets and pillow cases were dingy.  The bathroom was tiny. The heat worked well and the room was quiet, except for the slamming of the side exit door that was just outside my room.  Not much for breakfast.  I took 2 sweet rolls and a cup of coffee with me.  I dumped the coffee in the parking lot because it was cold.  I took one bite out of the sweet roll and threw them both out.  Hard and stale.  I would look a little harder for a motel next time I'm in Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>This would be a pretty nice $65.00 motel, but it wasn't worth the $100.00 that I paid.  There were a lot of people stuck in Denver due to the big snow storm, so I'm sure they took advantage of that.  Anyway, the room wasn't bad.  It was recently painted, because the masking tape was still on the light fixtures.  It was clean, but the sheets and pillow cases were dingy.  The bathroom was tiny. The heat worked well and the room was quiet, except for the slamming of the side exit door that was just outside my room.  Not much for breakfast.  I took 2 sweet rolls and a cup of coffee with me.  I dumped the coffee in the parking lot because it was cold.  I took one bite out of the sweet roll and threw them both out.  Hard and stale.  I would look a little harder for a motel next time I'm in Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r484988023-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>484988023</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Good value for the cost.  Friendly, helpful staff.  Continental breakfast was as expected for this type of breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Good value for the cost.  Friendly, helpful staff.  Continental breakfast was as expected for this type of breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r484795023-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>484795023</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Very nice improvements to this Hotel</t>
+  </si>
+  <si>
+    <t>With the improvements that have been made, I would give the Super 8 a 3+ star rating.  New carpet, upgraded beds within the last few months has them ready for the peak season.  Conviently located off I-76 just before the hustle and bustle of downtown Denver.  There is not much within walking distance, but shoping and restaurants are plentiful within a 5 minute drive.  The staff is exceptional in answering any questions and making recommendations.  I found the chinese food that was delivered to be more than I could eat with great prices.I will definately be staying there more in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>With the improvements that have been made, I would give the Super 8 a 3+ star rating.  New carpet, upgraded beds within the last few months has them ready for the peak season.  Conviently located off I-76 just before the hustle and bustle of downtown Denver.  There is not much within walking distance, but shoping and restaurants are plentiful within a 5 minute drive.  The staff is exceptional in answering any questions and making recommendations.  I found the chinese food that was delivered to be more than I could eat with great prices.I will definately be staying there more in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r482329760-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>482329760</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r482223514-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>482223514</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Got what we paid for!</t>
+  </si>
+  <si>
+    <t>The room was clean, and reasonably decorated but the bathroom was extremely small and the breakfast limited but it was reasonable for what we paid for.  We stsyed here only because the Holiday Inn next door was full.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean, and reasonably decorated but the bathroom was extremely small and the breakfast limited but it was reasonable for what we paid for.  We stsyed here only because the Holiday Inn next door was full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r477726926-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>477726926</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r465719634-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>465719634</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>not worth the price</t>
+  </si>
+  <si>
+    <t>The location wasn't near any cafes within a reasonable distance. The price i feel is to high considering it's in an industrial area and not easely accessable. Also the maps GPS location missed it by at least 5 miles, it showed it 5 miles further out than it's actual location is!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r464798470-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>464798470</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r464186245-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>464186245</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r461592302-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>461592302</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r460397235-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>460397235</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r455954586-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>455954586</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Stayed in room 101 for several days, staff were friendly and very helpful.  The room was clean and did not have any foul odors. The laundry is located in the small breakfast nook so avoid using it during the breakfast hours. Semi Truck parking is available.The hotel is slightly overpriced for the quality that's why I only gave it a 3 out of 5 stars, along with the laundry issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Stayed in room 101 for several days, staff were friendly and very helpful.  The room was clean and did not have any foul odors. The laundry is located in the small breakfast nook so avoid using it during the breakfast hours. Semi Truck parking is available.The hotel is slightly overpriced for the quality that's why I only gave it a 3 out of 5 stars, along with the laundry issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r432272539-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>432272539</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r429981771-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>429981771</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>I expected more</t>
+  </si>
+  <si>
+    <t>Person at front desk gave us a room that wasn't made up, though it was past check in time and it was right next to a room where they were replacing the carpets, although they promised me it wouldn't be noisy.  I was moved to a room near the elevator (there was no noise).  The front desk called me about complaints every time we walked across the room, from 7:30pm to 8:30pm.  The room was not one of the ones that had been updated.  The breakfast was really small "continental." in a tiny room that was crowded with 3 tables with 2 chairs each.  Yet about 20 workmen, all crowded into the room making it difficult to even get anything.  The people at the front desk were rude.  To top it off, they let me know that once their renovations were completed they would be raising the rates.  I was really disappointed in our stay and would not recommend it to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2016</t>
+  </si>
+  <si>
+    <t>Person at front desk gave us a room that wasn't made up, though it was past check in time and it was right next to a room where they were replacing the carpets, although they promised me it wouldn't be noisy.  I was moved to a room near the elevator (there was no noise).  The front desk called me about complaints every time we walked across the room, from 7:30pm to 8:30pm.  The room was not one of the ones that had been updated.  The breakfast was really small "continental." in a tiny room that was crowded with 3 tables with 2 chairs each.  Yet about 20 workmen, all crowded into the room making it difficult to even get anything.  The people at the front desk were rude.  To top it off, they let me know that once their renovations were completed they would be raising the rates.  I was really disappointed in our stay and would not recommend it to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r424435502-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>424435502</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Stopover on return from CA to NC</t>
+  </si>
+  <si>
+    <t>We were  trip from NC to CA and back with our camping trailerAfter crossing the mountains we want any easy stop before heading over the plainsThis hotel was close to the interstate - had easy parking for the trailer although we had to disconnect the truck to go for something - Hotel had everything we needed for an over night stopMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Cindi C, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>We were  trip from NC to CA and back with our camping trailerAfter crossing the mountains we want any easy stop before heading over the plainsThis hotel was close to the interstate - had easy parking for the trailer although we had to disconnect the truck to go for something - Hotel had everything we needed for an over night stopMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r419913807-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>419913807</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r418158099-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>418158099</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r416884995-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>416884995</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>The worst super 8 I have ever stayed in.</t>
+  </si>
+  <si>
+    <t>The dirtiest rooms from the walls to the carpet. Mold in the showers. Horrible service. Rooms were never cleaned.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r415376870-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>415376870</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t>Upon arrival the room I was checked into was occupied and when I went to the next room offered it was occupied as well.  Margaret, the overnight front desk staff member was great.  She apologized for the mix up and then quickly and efficiently cleaned a room for me.  Margaret turned a possible frustrating situation into a positive experience.  Thanks Margaret for your hospitality and kindness!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r412943193-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>412943193</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Not a cozy feeling like i have had at other hotels</t>
+  </si>
+  <si>
+    <t>The shower curten was broke and stayed open. the room was just dirty and had a bad smell in it. There was trash under night stand, tv droor stand, and under table. Air cooler didnt work and rude custermer sevice....</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r411791719-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>411791719</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Not the Super 8 quality I'm used to.</t>
+  </si>
+  <si>
+    <t>I was surprised to see that the room wasn't really all that nice. Clean? I'm not sure because there was trash under the bed from the previous guests..  Not sure I'd stay here again and wasn't worth the money. $80 room but it was only worth at most $45...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r408421124-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>408421124</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r405304696-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>405304696</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r401752290-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>401752290</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>We had reservations there for 5 days. On 7-28 we were out for the day &amp; came back &amp; went into our room(which the cards still worked) &amp; found all of our belongings gone. Went downstairs &amp; they said our room was giving to someone else &amp; they threw all of my makeup in a big trash bag &amp; had our suitcases in the lobby. They said they tried to call me, but I had given out my home address. That was my fault. So they put us in another room with a queen bed. No big deal. We had gone out that day &amp; came back &amp; the maid didn't come in to do anything. Went &amp; told the front desk &amp; they apologized &amp; gave us fresh towels. The next day we came back &amp; there was was no soap for the shower, so we had to go &amp; ask for that. We would not stay there again. Old furniture.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We had reservations there for 5 days. On 7-28 we were out for the day &amp; came back &amp; went into our room(which the cards still worked) &amp; found all of our belongings gone. Went downstairs &amp; they said our room was giving to someone else &amp; they threw all of my makeup in a big trash bag &amp; had our suitcases in the lobby. They said they tried to call me, but I had given out my home address. That was my fault. So they put us in another room with a queen bed. No big deal. We had gone out that day &amp; came back &amp; the maid didn't come in to do anything. Went &amp; told the front desk &amp; they apologized &amp; gave us fresh towels. The next day we came back &amp; there was was no soap for the shower, so we had to go &amp; ask for that. We would not stay there again. Old furniture.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r393322634-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>393322634</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>DONT STAY HERE</t>
+  </si>
+  <si>
+    <t>The guy at front desk was not very friendly. My reservation was for 2 Queen beds, only had one bed.  When I went down and said something to front desk,  all he could say is "We can't guarantee room type " . I was given 10.00 back. The room was horrible.  It smelled so bad I had to go buy fresher. The walls were filthy,  as the carpet, the air conditioner and the carpet was all torn up by the bathroom.  When I said something to front desk all he could say was " I'm sorry you were not happy with your stay"  REALLY ? for the price I paid,  I should of been offered a refund.MoreShow less</t>
+  </si>
+  <si>
+    <t>The guy at front desk was not very friendly. My reservation was for 2 Queen beds, only had one bed.  When I went down and said something to front desk,  all he could say is "We can't guarantee room type " . I was given 10.00 back. The room was horrible.  It smelled so bad I had to go buy fresher. The walls were filthy,  as the carpet, the air conditioner and the carpet was all torn up by the bathroom.  When I said something to front desk all he could say was " I'm sorry you were not happy with your stay"  REALLY ? for the price I paid,  I should of been offered a refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r392771964-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>392771964</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Ok experience</t>
+  </si>
+  <si>
+    <t>There were only a few issues I had with my experience here. A dirty pillowcase which was promptly resolved when provided with a clean one. One out of four pillow cases had dirt or something on it. The other issue is maintenance. The rooms were functional, but you could see on the walls where holes had been patched, but not sanded or painted. There was no drain plug in the sink and a toothpaste cap stuck in the drain that I could see, probably because of no drain plug. The breakfast was so so. Not bad though. I would have liked some fruit. Despite these issues customer service was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>There were only a few issues I had with my experience here. A dirty pillowcase which was promptly resolved when provided with a clean one. One out of four pillow cases had dirt or something on it. The other issue is maintenance. The rooms were functional, but you could see on the walls where holes had been patched, but not sanded or painted. There was no drain plug in the sink and a toothpaste cap stuck in the drain that I could see, probably because of no drain plug. The breakfast was so so. Not bad though. I would have liked some fruit. Despite these issues customer service was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r392571339-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>392571339</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>The only reasonable priced hotel in Denver</t>
+  </si>
+  <si>
+    <t>I looked all around for a hotel in the Denver area that was reasonably priced and found nothing, so I gave up and went here. The Wyndham app (which I use for a majority of my bookings) automatically put me in a smoking room, which is no bueno. Lukcy for me the woman checking me in realized I was not a smoker and switched without hesitation. In fact she was very nice, and probably the only good thing about this hotel. For $80 I got a room, which smelled like wet dog. I am not sure which is worse, wet dog or smoke but I went with the dog. The pillows were like small bags of tumory lumps and the blankets were not clean. But I guess thats what you get for $80 in Denver. MoreShow less</t>
+  </si>
+  <si>
+    <t>I looked all around for a hotel in the Denver area that was reasonably priced and found nothing, so I gave up and went here. The Wyndham app (which I use for a majority of my bookings) automatically put me in a smoking room, which is no bueno. Lukcy for me the woman checking me in realized I was not a smoker and switched without hesitation. In fact she was very nice, and probably the only good thing about this hotel. For $80 I got a room, which smelled like wet dog. I am not sure which is worse, wet dog or smoke but I went with the dog. The pillows were like small bags of tumory lumps and the blankets were not clean. But I guess thats what you get for $80 in Denver. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r389464953-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>389464953</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Great location to get to airport</t>
+  </si>
+  <si>
+    <t>We were impressed with the staff. They were very helpful in answering our questions. The only reason I didn't give it an excellent was not because of their consistently clean and spacious rooms, but because there was very little in terms of places to eat.  We got a good nights sleep and will use it again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r389430890-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>389430890</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r389370481-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>389370481</t>
+  </si>
+  <si>
+    <t>1 week stay</t>
+  </si>
+  <si>
+    <t>Solid! clean, organized, and Fridge and Microwave in room....Had left a crappy TravelLodge from hell.....Lucky to find this place.  All the workers here care, breakfast was excellent.  One of the top Super 8's I have ever stayed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r387643432-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>387643432</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Super8Denver, Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded July 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r384678575-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>384678575</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r384656450-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>384656450</t>
+  </si>
+  <si>
+    <t>Not pleasant at all.</t>
+  </si>
+  <si>
+    <t>Our room had holes in the room and bathroom walks, the showerhead was held up by bungee cords, the carpet was so grimey my light colored socks turned black walking around in the room for 30min, and the room stank very strongly of cigarette smoke.  Overall a very unpleasant experience.  I will not be back and I will not be recommending this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r378642219-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>378642219</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Last Visit..</t>
+  </si>
+  <si>
+    <t>My room was not ready. We waited in the stairwell for 30 minutes. The room was lacking towels. The breakfast lacked coffee, juice and fruit. This was is my 1st and last stay at this particular Super 8. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Super8Denver, Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded June 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2016</t>
+  </si>
+  <si>
+    <t>My room was not ready. We waited in the stairwell for 30 minutes. The room was lacking towels. The breakfast lacked coffee, juice and fruit. This was is my 1st and last stay at this particular Super 8. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r377502545-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>377502545</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Super8Denver, Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r372049174-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>372049174</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Won't stay again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was dirty, doorframe was busted and hanging loose, hole in bathroom door.   Felt like the floor was gonna fall in around the bathtub. The bathroom fan/light was extremely loud and just plain noisy.. others in room were woken up every time anyone tried to use the restroom. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r353425268-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>353425268</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working Class Hotel. </t>
+  </si>
+  <si>
+    <t>Not the best hotel I've ever stayed, but by no means the worst. Had a working class vibe to it. I was on a long road trip, and was just looking for a say place to stay on the outskirts of Denver. The room was clean, the beds were made, and the shower had hot water. It gives a CDL discount. There is a La Quinta Inn next door, but they quoted prices about 30 dollars more for a similar room. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Super8Denver, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Not the best hotel I've ever stayed, but by no means the worst. Had a working class vibe to it. I was on a long road trip, and was just looking for a say place to stay on the outskirts of Denver. The room was clean, the beds were made, and the shower had hot water. It gives a CDL discount. There is a La Quinta Inn next door, but they quoted prices about 30 dollars more for a similar room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r344813607-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>344813607</t>
+  </si>
+  <si>
+    <t>02/03/2016</t>
+  </si>
+  <si>
+    <t>Better than my last trip last year Feb 2015</t>
+  </si>
+  <si>
+    <t>I can honestly say that there had to be a change in management. Because the rooms were a bit more up to date. The carpets were clean, the rooms didn't reek of old cigarettes and the bathroom fixtures were nicer.I choose to go back because my husband and I are truckers and was in the middle of the snow storm and it was very close to where we had to deliver, as hesitant as I was and him convincing me, it would only be for a few hours, I agreed.I'm very impressed with the upgrade!I even told front desk I'll see them next time we're in the area for business. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Super8Denver, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>I can honestly say that there had to be a change in management. Because the rooms were a bit more up to date. The carpets were clean, the rooms didn't reek of old cigarettes and the bathroom fixtures were nicer.I choose to go back because my husband and I are truckers and was in the middle of the snow storm and it was very close to where we had to deliver, as hesitant as I was and him convincing me, it would only be for a few hours, I agreed.I'm very impressed with the upgrade!I even told front desk I'll see them next time we're in the area for business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r340986345-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>340986345</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Super8Denver, Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded January 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r335124565-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>335124565</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>Acclimating</t>
+  </si>
+  <si>
+    <t>This was my second time staying at this hotel, and I wouldn't mind staying again.  The location is convenient, and it is reasonably priced.  Likewise, it is clean and quiet.  I quite enjoy the staff, and I am thankful that there are no pets.  I really like the brand of shampoo/conditioner that this hotel uses- I use the exact same shampoo and conditioner at home, and it is amazing!  It was a little cold in my room, and it would be nice to have lotion.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Super8Denver, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded December 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2015</t>
+  </si>
+  <si>
+    <t>This was my second time staying at this hotel, and I wouldn't mind staying again.  The location is convenient, and it is reasonably priced.  Likewise, it is clean and quiet.  I quite enjoy the staff, and I am thankful that there are no pets.  I really like the brand of shampoo/conditioner that this hotel uses- I use the exact same shampoo and conditioner at home, and it is amazing!  It was a little cold in my room, and it would be nice to have lotion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r331309755-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>331309755</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>Quiet, Clam, Drama free. Awesome staff, Great service. Who could ask for more.</t>
+  </si>
+  <si>
+    <t>I stayed there a few times now. This last stay was for a week. I have stayed at a lot of hotels and i have never written a review before. But I will recommend this hotel to everyone in there area. By far the best service. They had everything that I needed. Kind hearted people who really care. Who could ask for more.MoreShow less</t>
+  </si>
+  <si>
+    <t>Super8Denver, General Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2015</t>
+  </si>
+  <si>
+    <t>I stayed there a few times now. This last stay was for a week. I have stayed at a lot of hotels and i have never written a review before. But I will recommend this hotel to everyone in there area. By far the best service. They had everything that I needed. Kind hearted people who really care. Who could ask for more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r330025928-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>330025928</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would go back again. </t>
+  </si>
+  <si>
+    <t>We got 2 rooms, unfortunately on of the rooms hadn't been cleaned. We got there after 8pm.  Had no problem getting a different room.  Room was comfortable enough.  Breakfast had waffles, always a plus. Staff was super friendly.  I really liked the lobby , all decorated for the Christmas season, warm and inviting!   One word of advise, if you stay on a Sunday night, get a room away from the garbage bin that's collected early on Monday morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Super8Denver, Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded December 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2015</t>
+  </si>
+  <si>
+    <t>We got 2 rooms, unfortunately on of the rooms hadn't been cleaned. We got there after 8pm.  Had no problem getting a different room.  Room was comfortable enough.  Breakfast had waffles, always a plus. Staff was super friendly.  I really liked the lobby , all decorated for the Christmas season, warm and inviting!   One word of advise, if you stay on a Sunday night, get a room away from the garbage bin that's collected early on Monday morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r318297542-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>318297542</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Comfy beds and good coffee.</t>
+  </si>
+  <si>
+    <t>The hotel itself is just okay (not great, not bad) but the beds are very comfy and the morning coffee is goooood, and that's all I really care about. Also, the staff is nice. Shelly (morning shifts) took such excellent care of me, this is my new go to place when I work out in Thornton for days at a time. I will most certainly be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Super8Denver, Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself is just okay (not great, not bad) but the beds are very comfy and the morning coffee is goooood, and that's all I really care about. Also, the staff is nice. Shelly (morning shifts) took such excellent care of me, this is my new go to place when I work out in Thornton for days at a time. I will most certainly be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r315179777-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>315179777</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>You get a fair value and then some...</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 4 nights with a group, attending a wedding and some business. The hotel is clean. The receptionist that we dealt with was outstanding in helpfulness and attention. The beds are comfortable and so are the pillows. The shower and sink worked well, so were the lights. Towels are small and semi-rough. Soap and shampoo are small but sufficient. The WI-FI was average. Breakfast was the usual junk carb food. However, we paid around $60 per room plus taxes. Based on everything, the location and the attentive personnel, this is a very good value. I gave it 4 stars, i.e. Very Good for value and cleanliness.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 4 nights with a group, attending a wedding and some business. The hotel is clean. The receptionist that we dealt with was outstanding in helpfulness and attention. The beds are comfortable and so are the pillows. The shower and sink worked well, so were the lights. Towels are small and semi-rough. Soap and shampoo are small but sufficient. The WI-FI was average. Breakfast was the usual junk carb food. However, we paid around $60 per room plus taxes. Based on everything, the location and the attentive personnel, this is a very good value. I gave it 4 stars, i.e. Very Good for value and cleanliness.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r314298173-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>314298173</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Clean comfortable room, missing some stuff</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable, wifi worked fine, and the TV worked great.  Advertised HBO was not on the TV however, there was no information about the hotel at all, no pad and pen, and not much attention to detail in general.  Breakfast was terrible with almost no choices and bad tasting juice.  The service behind the desk was OK, but not all that friendly or energetic.  The location is not the best, especially if you want to go out to eat.  The price should be lower.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r311150658-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>311150658</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r309784270-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>309784270</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>1 night only.</t>
+  </si>
+  <si>
+    <t>If you need a place just for a night as your driving thru, the super 8 will do.  Rooms are very dated and worn.  Musty smell, stained carpets, tattered furniture, burn holes in bed spreads.  This place needs a make over.  The beds are comfortable, the rooms are quiet, the continental breakfast is average.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r308411383-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>308411383</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>not so good</t>
+  </si>
+  <si>
+    <t>Hotel is pretty much a dump.  Ive stayed in rooms same price that were 10 times better.  it was kinda scary.  So we were ina nonsmoking room--however, the elevator and getting off on our floor was overflowed with smoke smell.  I told the lady at the front desk--she explained that the rooms to the right off the elevator were nonsmoking and the ones to the left were smoking--so that explains a lot right!  No amentities--just a bed basicallly--so better than sleeping outside other than that--i would never stay there again personally; and would not recommend for families...Ladies at the front desk were nice enough though</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r304487101-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>304487101</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property was dirty and run down, room had an oder. Breakfast was a joke. Staff very unfriendly. Would not recommend this property to anyone. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r304225401-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>304225401</t>
+  </si>
+  <si>
+    <t>08/27/2015</t>
+  </si>
+  <si>
+    <t>Disappointed in Denver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have stayed in good Super 8's but this was disappointing. The non-smoking room had a stale smell, holes in the wall, was not clean and had noisy late night tenants. The staff was friendly.    </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r301693147-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>301693147</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>well to start off this hotel is on a marijuana friendly sight. their "marijuana friendly" means smoke outside in the back parking lot by a boat.. the hotel stairs were full of trash. the room looked broken into and unfixed. while we were here "terminix" the bug killer was here to do what they do best. the breakfast was minimal. beds were comfy.. all in all, not what we were told on the hotels website.... hopefully the next stay will be more pleasant.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r299373473-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>299373473</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>The office staff was very friendly and they remembered us...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The office staff was very friendly and they remembered us from a previous stay.  The handicap room is very accommodating and very nice!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r294830232-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>294830232</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Super Satisfied</t>
+  </si>
+  <si>
+    <t>I'll start with the best:  Hands down best sleep I've ever received at a hotel- I'm still shocked.  The bed was very comfortable, and I was able to control the temperature with the fan by the window.  Staff was accommodating and very friendly.  I made a special room request, the staff delivered, and I loved where my room was located.  The room was clean, linens were clean.  I was satisfied with the room's updates.  The shower was good, and the Matrix shampoo was such a nice surprise!  I was very pleased that the hotel was pet free...  as that is getting harder and harder to find for us non-pet people.  Lastly, fair price for the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I'll start with the best:  Hands down best sleep I've ever received at a hotel- I'm still shocked.  The bed was very comfortable, and I was able to control the temperature with the fan by the window.  Staff was accommodating and very friendly.  I made a special room request, the staff delivered, and I loved where my room was located.  The room was clean, linens were clean.  I was satisfied with the room's updates.  The shower was good, and the Matrix shampoo was such a nice surprise!  I was very pleased that the hotel was pet free...  as that is getting harder and harder to find for us non-pet people.  Lastly, fair price for the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r291452734-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>291452734</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>ROACHES</t>
+  </si>
+  <si>
+    <t>not very clean hair in shower still and saw 2 cockroaches.. reported to front desk and asked if can be moved to another room. Agent said no that she couldnt do that.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r286177285-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>286177285</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were very happy with our stay.  All of the staff was great.  I would recommend this Super 8 to everyone to stay at.  Did I get my rewards points for the stay? </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r285940997-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>285940997</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Free breakfast,</t>
+  </si>
+  <si>
+    <t>We stayed two nights. The rooms are spacious and clean, bathrooms a little tight but clean.  I would stay here again. We did not eat the free breakfast but the breakfast area was full of people. Staff is generous the location was convenient.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r281025875-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>281025875</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Worst hotel I've ever stayed at  and very over priced for the room. The furniture looked like it was over 20 yrs old. Carpet had stains on it. The chair in the room was broken. The walls were dirty. Hair in the tub. The lobby smelled of smokers. The worst experience ever. I'll never stay there again when I come back to Denver. I went to the front desk to notify the staff and was told they would right it down and fax it to the owner. Also was told they would give me a $10.00 discount off my room and the lady the next morning told me she couldn't do that cause the staff the night be for didn't leave a note. Every thing bout my stay and how the staff handled my complaints were unprofessional. I've stayed at a motel 6 that was nicer and cheaper. The parking lot entrance has big pot holes. MoreShow less</t>
+  </si>
+  <si>
+    <t>Worst hotel I've ever stayed at  and very over priced for the room. The furniture looked like it was over 20 yrs old. Carpet had stains on it. The chair in the room was broken. The walls were dirty. Hair in the tub. The lobby smelled of smokers. The worst experience ever. I'll never stay there again when I come back to Denver. I went to the front desk to notify the staff and was told they would right it down and fax it to the owner. Also was told they would give me a $10.00 discount off my room and the lady the next morning told me she couldn't do that cause the staff the night be for didn't leave a note. Every thing bout my stay and how the staff handled my complaints were unprofessional. I've stayed at a motel 6 that was nicer and cheaper. The parking lot entrance has big pot holes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r274542382-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>274542382</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Was given a room and when i used room key to open door...</t>
+  </si>
+  <si>
+    <t>Was given a room and when i used room key to open door found two men undressed already in room .went back down to desk was told it was empty by clerk told her it was not finally she gave us another room was not set up for four people and was told there were no more pillows room smelled bad and carpet had a big hump which kept getting tripped over desk clerk very rude so we checked out after about an hr and went somewhere  else would not want anyone i know staying there</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r273885356-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>273885356</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Just a little expensive for what you get. I usually stay...</t>
+  </si>
+  <si>
+    <t>Just a little expensive for what you get. I usually stay there cause i can get my semi truck in and out pretty easy. But it's not the cleanest place. Plus they could use some new washer's and dryers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r262268321-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>262268321</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasn't the worst </t>
+  </si>
+  <si>
+    <t xml:space="preserve">So the wife and I had a date night and decided to stay at the super 8. The room was clean and the bed was comfortable. The service from the front desk can use some attention from management on how to treat guest also how to use the wynguest system. From improper training this stay cost me the price of 2 rooms for 1 the front desk staff needs more training I probably would not stay here again. </t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r257453786-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>257453786</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I have had a great experience staying here at the Super 8 motel.  The staff here have been over trained in customer service! They really go above and beyond to make their guest feel like they are at home.  I had to check in to Super 8 due to a bad situation, Shelly who is one of the woman who work the front desk has been so helpful to me.  She has made feel safe and happy while staying here at Super 8!!  Not to Mention the fabulous house keeping, these ladies keep this building immaculate!  I recommend the Super 8 motel to anyone!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r255412884-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>255412884</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Overall, very good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great stay, only downside is the lack of restaurant/bars and shopping close by (walking distance).  Staff was cheerful and accommodating.  Value was very good.  Internet service could have been better. </t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r254195920-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>254195920</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Currently Questionable</t>
+  </si>
+  <si>
+    <t>Recently stayed here and room had multiple deficiencies. When I relaying the problems to the staff, they were receptive to recording the problems and said that they would pass the information along to the property manager. It sounded as if they intended to have the problems fixed or resolved, but you never know if the owner of a hotel is on board with the thoughts of their staff.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r243005783-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>243005783</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>it did have a flat screen tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old, funky smell to room... entire facility needs to be remodeled- nice woman at desk- will NOT be returning....... </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r236099105-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>236099105</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super 8 has stepped up its game in hotels. Comfortable beds and good sized clean rooms. Totally different ballgame compared to Red Roof and La quinta inns which are mainly roach motels and price gougers. </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r233620229-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>233620229</t>
+  </si>
+  <si>
+    <t>10/10/2014</t>
+  </si>
+  <si>
+    <t>Dirty Over-Priced Hotel</t>
+  </si>
+  <si>
+    <t>I paid over $80 to stay in this room.  It was one of the dirtiest rooms that I have ever had.  Even though it was a smoke free room, it smelled like a dirty ash tray.   The carpet had black oil stains everywhere and had lots of semen stains on the carpet by the bed.  My clean white socks turned black from walking in the the room.  There were homeless men hanging out in the parking lot which had trash everywhere.   The breakfast was terrible.   Both the orange juice and apple juice were out.   There are no restaurants close by.   The hotel is located in an industrial area.   Don't make the same mistake as me.MoreShow less</t>
+  </si>
+  <si>
+    <t>I paid over $80 to stay in this room.  It was one of the dirtiest rooms that I have ever had.  Even though it was a smoke free room, it smelled like a dirty ash tray.   The carpet had black oil stains everywhere and had lots of semen stains on the carpet by the bed.  My clean white socks turned black from walking in the the room.  There were homeless men hanging out in the parking lot which had trash everywhere.   The breakfast was terrible.   Both the orange juice and apple juice were out.   There are no restaurants close by.   The hotel is located in an industrial area.   Don't make the same mistake as me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r225036466-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>225036466</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Not worth the cost</t>
+  </si>
+  <si>
+    <t>83.79 (and that's with a CDL discount) regularly 99.99 + tax.  The room we were in was pretty bad.  Carpet needs cleaned, ceiling tile coming out, shower curtain was so filthy it should just be trashed.  Bathroom walls were filthy and bathroom door had a hole in it.   Lots of other areas that could use some cleaning and or repairs.  I gave them a 2 rating because the bed was extremely comfortable and the staff was nice.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r221231827-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>221231827</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r220976687-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>220976687</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r212411629-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>212411629</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>Good for the price....</t>
+  </si>
+  <si>
+    <t>This was a last minute choice when our other hotel was terrible, and all in all it was not a bad place to stay.  We came in the evening and the front desk lady was very nice and helpful (had to call her for directions because my gps ran us the wrong way).  Rooms were outdated and could probably use some repairs, but it was clean, and the beds were really comfortable.  Breakfast was minimal, but there which is nice, and the best part was it was decently priced and close to the airport.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r209739647-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>209739647</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r206797459-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>206797459</t>
+  </si>
+  <si>
+    <t>05/23/2014</t>
+  </si>
+  <si>
+    <t>not the best hotel</t>
+  </si>
+  <si>
+    <t>I think they were in the process of painting which it needed! We had a non-smoking room which smelled like smoke but livable for one night.  The TV was messed up-we would punch in for example channel 5 and it would show channel 34 or something else.... That was frustrating. It was quiet and for the one night it was fine although  I don't think we would stay here again. HOWEVER, the front desk gal "Vicki" was so friendly and helpful. Their computer system went down and as a result she couldn't give out keys to any guests. SO she was busy opening the doors to people's rooms-she did everything to accommodate us/and the other guests.  She was friendly and very helpful in spite of a frustrating situation.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I think they were in the process of painting which it needed! We had a non-smoking room which smelled like smoke but livable for one night.  The TV was messed up-we would punch in for example channel 5 and it would show channel 34 or something else.... That was frustrating. It was quiet and for the one night it was fine although  I don't think we would stay here again. HOWEVER, the front desk gal "Vicki" was so friendly and helpful. Their computer system went down and as a result she couldn't give out keys to any guests. SO she was busy opening the doors to people's rooms-she did everything to accommodate us/and the other guests.  She was friendly and very helpful in spite of a frustrating situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r201147782-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>201147782</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r198884473-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>198884473</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r197551492-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>197551492</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Old, dumpy and dirty</t>
+  </si>
+  <si>
+    <t>This is the worst Super 8 I've ever seen! It's very, very old and hasn't been updated in many years.  If the rooms were super cheap I wouldn't expect more but for $73 I expect a little more.  We had a voucher for $40 off and that is the only reason that we stayed there.I suppose it was as clean as it could be in the room but the carpet was horrible stained and really gross around the walls. The breakfast room was pathetic. There were 5 little tables and maids were sitting at 2 of them. They have a waffle maker, bread for toast, cold cereal, milk and juice.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the worst Super 8 I've ever seen! It's very, very old and hasn't been updated in many years.  If the rooms were super cheap I wouldn't expect more but for $73 I expect a little more.  We had a voucher for $40 off and that is the only reason that we stayed there.I suppose it was as clean as it could be in the room but the carpet was horrible stained and really gross around the walls. The breakfast room was pathetic. There were 5 little tables and maids were sitting at 2 of them. They have a waffle maker, bread for toast, cold cereal, milk and juice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r185202444-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>185202444</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>My husband is here for work and I came to visit him. The staff here is awesome!  Yes outside it looks a little run down but inside it is a great hotel! Everyone here strives to make your stay the best it can be and at a reasonable price. We have enjoyed are stay here! If you are coming into Denver and need a nice place for the night then this is the place to be!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Super8Denver, Front Office Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded November 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2013</t>
+  </si>
+  <si>
+    <t>My husband is here for work and I came to visit him. The staff here is awesome!  Yes outside it looks a little run down but inside it is a great hotel! Everyone here strives to make your stay the best it can be and at a reasonable price. We have enjoyed are stay here! If you are coming into Denver and need a nice place for the night then this is the place to be!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r183219827-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>183219827</t>
+  </si>
+  <si>
+    <t>11/01/2013</t>
+  </si>
+  <si>
+    <t>Stay???? NO WAY!</t>
+  </si>
+  <si>
+    <t>After driving 12 hours straight we needed to stop and grab some quick shut eye.  Apparently at 4:00 am this hotel in the dark didn't show how run down and dirty that it was.  We were exhausted and were only looking to take a nap for a few hours and a quick shower for a reasonable price.Aside from the helpful staff at the front desk, there are no other compliments for this hotel.  It is very worn down, and dirty.  The beds were very hard, pillows were almost non-existant and did I mention the entire place was very worn down and dirty....and it is right along side the interstate so it is very hard to sleep with the traffice noise.Insult to injury - the rooms were not that cheap for what you receivedDo yourself a favor keep on driving into Denver to finMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Super8Denver, Front Office Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded November 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2013</t>
+  </si>
+  <si>
+    <t>After driving 12 hours straight we needed to stop and grab some quick shut eye.  Apparently at 4:00 am this hotel in the dark didn't show how run down and dirty that it was.  We were exhausted and were only looking to take a nap for a few hours and a quick shower for a reasonable price.Aside from the helpful staff at the front desk, there are no other compliments for this hotel.  It is very worn down, and dirty.  The beds were very hard, pillows were almost non-existant and did I mention the entire place was very worn down and dirty....and it is right along side the interstate so it is very hard to sleep with the traffice noise.Insult to injury - the rooms were not that cheap for what you receivedDo yourself a favor keep on driving into Denver to finMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r182829798-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>182829798</t>
+  </si>
+  <si>
+    <t>10/29/2013</t>
+  </si>
+  <si>
+    <t>Super8Denver, Front Office Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r179270731-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>179270731</t>
+  </si>
+  <si>
+    <t>09/30/2013</t>
+  </si>
+  <si>
+    <t>Cheap, clean bed &amp; clean bathroom/shower</t>
+  </si>
+  <si>
+    <t>All the previous reviews are pretty much dead on.  Passing through on business-all i need is a clean bed, shower, and working air conditioner.  Really...this hotel seems to be under poor management.  The rooms are cleaned satisfactorily...it's the shape the carpets are in; both in the rooms and the halls. The lobby, elevator, and halls didn't smell clean/trash on the floors.  The room smelled clean and felt clean except for the carpet.  Room 316-fyi.  Oh..and serves only muffins, corn flakes, and coffee for breakfast?  Lol. What the crap?  No, customer appreciation shown there!  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Super8Denver, Front Office Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2013</t>
+  </si>
+  <si>
+    <t>All the previous reviews are pretty much dead on.  Passing through on business-all i need is a clean bed, shower, and working air conditioner.  Really...this hotel seems to be under poor management.  The rooms are cleaned satisfactorily...it's the shape the carpets are in; both in the rooms and the halls. The lobby, elevator, and halls didn't smell clean/trash on the floors.  The room smelled clean and felt clean except for the carpet.  Room 316-fyi.  Oh..and serves only muffins, corn flakes, and coffee for breakfast?  Lol. What the crap?  No, customer appreciation shown there!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r177310973-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>177310973</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r173188216-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>173188216</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r168777082-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>168777082</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Super8Denver, Front Office Manager at Super 8 by Wyndham Henderson North East Denver, responded to this reviewResponded October 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r167990435-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>167990435</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r167168901-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>167168901</t>
+  </si>
+  <si>
+    <t>07/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r166857596-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>166857596</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r165367831-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>165367831</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r157877466-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>157877466</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Smelly, dirty and not worth the money</t>
+  </si>
+  <si>
+    <t>I should always pay attention to a hotel that has a divider between the front desk staff and customers.  This one had it in spades. Especially when we asked for a pet-friendly room.This hotel smells like old cigarette smoke in the hallways.  Our bathroom was barely clean.  The mattresses seemed to be new but we still felt like showering right away.Yes the hallway carpet seemed new, and with padding underneath, too. Yes there was a fridge in the room.  And a microwave.  But the pet slobber on the window showed the care the staff gives to cleaning.We paid over $80 for a one night stay.  This is probably worth $40.  Maybe $30.Unless you are an exhausted workingman who doesn't care about anything except a flat place to stretch out until the next morning, keep driving.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I should always pay attention to a hotel that has a divider between the front desk staff and customers.  This one had it in spades. Especially when we asked for a pet-friendly room.This hotel smells like old cigarette smoke in the hallways.  Our bathroom was barely clean.  The mattresses seemed to be new but we still felt like showering right away.Yes the hallway carpet seemed new, and with padding underneath, too. Yes there was a fridge in the room.  And a microwave.  But the pet slobber on the window showed the care the staff gives to cleaning.We paid over $80 for a one night stay.  This is probably worth $40.  Maybe $30.Unless you are an exhausted workingman who doesn't care about anything except a flat place to stretch out until the next morning, keep driving.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r148752236-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>148752236</t>
+  </si>
+  <si>
+    <t>01/03/2013</t>
+  </si>
+  <si>
+    <t>Friendliest and Most Helpful Desk Agents!</t>
+  </si>
+  <si>
+    <t>Desk gals absolutely wonderful and helpful.  The problem we really had was the unrefundable dog deposit (AND that it was $15.00 instead of $10.00 as per online).  ALSO coffee was horrible. Waffles great.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r145777085-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>145777085</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r145106226-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>145106226</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r140375905-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>140375905</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for.</t>
+  </si>
+  <si>
+    <t>Everything was up to expectations. Clean rooms, comfy beds, good breakfast, safe car parking. Price was right. Staff amenable. Hotel was handy, right off the main highway. Just what we needed after 200 mile drive.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r135029404-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>135029404</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Are you kidding me?</t>
+  </si>
+  <si>
+    <t>No towels in king suite. Remote doesnt work. A/C wasn't keeping room cool. Front desk a joke. I asked for towels, response was come down in a little bit and get some, we ran out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r133106907-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>133106907</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Not up to par</t>
+  </si>
+  <si>
+    <t>Arrived very late (3am), the woman operating the front desk looked at us (me, hubby and 2 kids) blankly for full 30 seconds before she even said a word to us. The room smelled, the mattresses were HORRIBLE and when my son went to use the sink the handle came off in his hand. The next morning I ran out and when I came back the owner parked blocking the front door and didn't even say a word to me. spend an extra $20 for the La Quinta next door.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r119461906-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>119461906</t>
+  </si>
+  <si>
+    <t>10/18/2011</t>
+  </si>
+  <si>
+    <t>!!!!!Burn it down!!!!!!</t>
+  </si>
+  <si>
+    <t>Don't bother. The ONLY good part wad the fact wifi, that was due to everyone else reading this before they looked.. Keep looking...don't waste your night like I did.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r116613664-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>116613664</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>We will never stay in a Super 8 Again</t>
+  </si>
+  <si>
+    <t>We had originally stopped to stay at the Holiday Inn Express next to the Super 8 but they were full. We were extremely tired and just wanted to go to bed so we tried this Super 8. I was quoted $84.99 - then in the morning was charged $89.99. If I had checked out our room I would have said something but my husband did it instead. -- the room was minimalistic -- we checked for bed bugs but it looked ok. Old, old mattresses, small hard pillows, old sheets and bedspread. The bathroom was barely big enough to open the door without hitting the toilet and there was a burn/rub mark in the floor where it left a hole in the carpeting. Breakfast was also minimal. They had jam and cream cheese out but no bread or pastries. Just had a few muffins, cereal and coffee. If we had known the area we would have kept driving for a room but didn't know when we would find another hotel. For the price paid not all that impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We had originally stopped to stay at the Holiday Inn Express next to the Super 8 but they were full. We were extremely tired and just wanted to go to bed so we tried this Super 8. I was quoted $84.99 - then in the morning was charged $89.99. If I had checked out our room I would have said something but my husband did it instead. -- the room was minimalistic -- we checked for bed bugs but it looked ok. Old, old mattresses, small hard pillows, old sheets and bedspread. The bathroom was barely big enough to open the door without hitting the toilet and there was a burn/rub mark in the floor where it left a hole in the carpeting. Breakfast was also minimal. They had jam and cream cheese out but no bread or pastries. Just had a few muffins, cereal and coffee. If we had known the area we would have kept driving for a room but didn't know when we would find another hotel. For the price paid not all that impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33468-d261397-r115199602-Super_8_by_Wyndham_Henderson_North_East_Denver-Henderson_Colorado.html</t>
+  </si>
+  <si>
+    <t>115199602</t>
+  </si>
+  <si>
+    <t>07/09/2011</t>
+  </si>
+  <si>
+    <t>It was ok, probably would chose another hotel</t>
+  </si>
+  <si>
+    <t>First, I'd like to say, I wrote a review about this hotel the night we stayed, but it's no longer on this website. Booked hotel online, got a good rate. First room we were given, couldn't get into. Went to front desk 3 times to get new keys before someone on the other side of the room door said it was occupied!! Went back to front desk, they had ONE room left for us, a double bed, even though i booked a king room. Hotel was rather dirty. Basic breakfast. Laundry available. Bed was old and lumpy, but slept ok. Room had microwave and fridge in it, both were dirty. Room really needed a GOOD cleaning!!! Employees were very friendly though, so that helped. No pool, but I thought the website said so when I booked. Right on I-76, but not noisey. Wifi available and worked.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>First, I'd like to say, I wrote a review about this hotel the night we stayed, but it's no longer on this website. Booked hotel online, got a good rate. First room we were given, couldn't get into. Went to front desk 3 times to get new keys before someone on the other side of the room door said it was occupied!! Went back to front desk, they had ONE room left for us, a double bed, even though i booked a king room. Hotel was rather dirty. Basic breakfast. Laundry available. Bed was old and lumpy, but slept ok. Room had microwave and fridge in it, both were dirty. Room really needed a GOOD cleaning!!! Employees were very friendly though, so that helped. No pool, but I thought the website said so when I booked. Right on I-76, but not noisey. Wifi available and worked.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2568,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2600,7861 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>136</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" t="s">
+        <v>83</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>137</v>
+      </c>
+      <c r="X19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>156</v>
+      </c>
+      <c r="O21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>157</v>
+      </c>
+      <c r="X21" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>157</v>
+      </c>
+      <c r="X22" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>169</v>
+      </c>
+      <c r="X23" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s">
+        <v>175</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>169</v>
+      </c>
+      <c r="X24" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>169</v>
+      </c>
+      <c r="X25" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>168</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>185</v>
+      </c>
+      <c r="X26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>193</v>
+      </c>
+      <c r="X27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J28" t="s">
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>193</v>
+      </c>
+      <c r="X28" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>135</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>206</v>
+      </c>
+      <c r="X29" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>209</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>211</v>
+      </c>
+      <c r="L30" t="s">
+        <v>212</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>168</v>
+      </c>
+      <c r="O30" t="s">
+        <v>146</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>206</v>
+      </c>
+      <c r="X30" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>217</v>
+      </c>
+      <c r="X31" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>220</v>
+      </c>
+      <c r="J32" t="s">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" t="s">
+        <v>223</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>201</v>
+      </c>
+      <c r="O32" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>135</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>201</v>
+      </c>
+      <c r="O33" t="s">
+        <v>83</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>227</v>
+      </c>
+      <c r="X33" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s">
+        <v>135</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>227</v>
+      </c>
+      <c r="X34" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>135</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>232</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>239</v>
+      </c>
+      <c r="X36" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>242</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s">
+        <v>244</v>
+      </c>
+      <c r="L37" t="s">
+        <v>245</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>246</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>239</v>
+      </c>
+      <c r="X37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>135</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>252</v>
+      </c>
+      <c r="X38" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" t="s">
+        <v>258</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>259</v>
+      </c>
+      <c r="X39" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>262</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>263</v>
+      </c>
+      <c r="J40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" t="s">
+        <v>265</v>
+      </c>
+      <c r="L40" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>267</v>
+      </c>
+      <c r="O40" t="s">
+        <v>83</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>268</v>
+      </c>
+      <c r="X40" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>271</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>135</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>267</v>
+      </c>
+      <c r="O41" t="s">
+        <v>83</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>268</v>
+      </c>
+      <c r="X41" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>275</v>
+      </c>
+      <c r="J42" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>267</v>
+      </c>
+      <c r="O42" t="s">
+        <v>58</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" t="s">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s">
+        <v>281</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>267</v>
+      </c>
+      <c r="O43" t="s">
+        <v>58</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J44" t="s">
+        <v>284</v>
+      </c>
+      <c r="K44" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" t="s">
+        <v>286</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>267</v>
+      </c>
+      <c r="O44" t="s">
+        <v>65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s">
+        <v>291</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>292</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>293</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" t="s">
+        <v>295</v>
+      </c>
+      <c r="K46" t="s">
+        <v>296</v>
+      </c>
+      <c r="L46" t="s">
+        <v>297</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>292</v>
+      </c>
+      <c r="O46" t="s">
+        <v>58</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>299</v>
+      </c>
+      <c r="J47" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>301</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>302</v>
+      </c>
+      <c r="J48" t="s">
+        <v>303</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>135</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>292</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" t="s">
+        <v>306</v>
+      </c>
+      <c r="K49" t="s">
+        <v>307</v>
+      </c>
+      <c r="L49" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s">
+        <v>58</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>311</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>312</v>
+      </c>
+      <c r="J50" t="s">
+        <v>313</v>
+      </c>
+      <c r="K50" t="s">
+        <v>314</v>
+      </c>
+      <c r="L50" t="s">
+        <v>315</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>317</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>318</v>
+      </c>
+      <c r="J51" t="s">
+        <v>319</v>
+      </c>
+      <c r="K51" t="s">
+        <v>320</v>
+      </c>
+      <c r="L51" t="s">
+        <v>321</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>309</v>
+      </c>
+      <c r="O51" t="s">
+        <v>58</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>324</v>
+      </c>
+      <c r="J52" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s">
+        <v>327</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>309</v>
+      </c>
+      <c r="O52" t="s">
+        <v>65</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>329</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>330</v>
+      </c>
+      <c r="J53" t="s">
+        <v>331</v>
+      </c>
+      <c r="K53" t="s">
+        <v>332</v>
+      </c>
+      <c r="L53" t="s">
+        <v>333</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>334</v>
+      </c>
+      <c r="O53" t="s">
+        <v>58</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>335</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>336</v>
+      </c>
+      <c r="J54" t="s">
+        <v>331</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>334</v>
+      </c>
+      <c r="O54" t="s">
+        <v>58</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>337</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>338</v>
+      </c>
+      <c r="J55" t="s">
+        <v>331</v>
+      </c>
+      <c r="K55" t="s">
+        <v>339</v>
+      </c>
+      <c r="L55" t="s">
+        <v>340</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>309</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>342</v>
+      </c>
+      <c r="J56" t="s">
+        <v>343</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>135</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>334</v>
+      </c>
+      <c r="O56" t="s">
+        <v>58</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>344</v>
+      </c>
+      <c r="X56" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>346</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" t="s">
+        <v>348</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>334</v>
+      </c>
+      <c r="O57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>349</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>350</v>
+      </c>
+      <c r="J58" t="s">
+        <v>348</v>
+      </c>
+      <c r="K58" t="s">
+        <v>351</v>
+      </c>
+      <c r="L58" t="s">
+        <v>352</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>334</v>
+      </c>
+      <c r="O58" t="s">
+        <v>58</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>354</v>
+      </c>
+      <c r="J59" t="s">
+        <v>355</v>
+      </c>
+      <c r="K59" t="s">
+        <v>356</v>
+      </c>
+      <c r="L59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>358</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>359</v>
+      </c>
+      <c r="X59" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>362</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>363</v>
+      </c>
+      <c r="J60" t="s">
+        <v>364</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s">
+        <v>135</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>358</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>365</v>
+      </c>
+      <c r="X60" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>367</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>368</v>
+      </c>
+      <c r="J61" t="s">
+        <v>369</v>
+      </c>
+      <c r="K61" t="s">
+        <v>370</v>
+      </c>
+      <c r="L61" t="s">
+        <v>371</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>358</v>
+      </c>
+      <c r="O61" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>373</v>
+      </c>
+      <c r="J62" t="s">
+        <v>374</v>
+      </c>
+      <c r="K62" t="s">
+        <v>375</v>
+      </c>
+      <c r="L62" t="s">
+        <v>376</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>377</v>
+      </c>
+      <c r="O62" t="s">
+        <v>65</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>378</v>
+      </c>
+      <c r="X62" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>381</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>382</v>
+      </c>
+      <c r="J63" t="s">
+        <v>383</v>
+      </c>
+      <c r="K63" t="s">
+        <v>384</v>
+      </c>
+      <c r="L63" t="s">
+        <v>385</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>386</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>387</v>
+      </c>
+      <c r="X63" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>390</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>391</v>
+      </c>
+      <c r="J64" t="s">
+        <v>392</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>135</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>393</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>394</v>
+      </c>
+      <c r="X64" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>396</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>397</v>
+      </c>
+      <c r="J65" t="s">
+        <v>398</v>
+      </c>
+      <c r="K65" t="s">
+        <v>399</v>
+      </c>
+      <c r="L65" t="s">
+        <v>400</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>401</v>
+      </c>
+      <c r="O65" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>402</v>
+      </c>
+      <c r="X65" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>405</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>406</v>
+      </c>
+      <c r="J66" t="s">
+        <v>407</v>
+      </c>
+      <c r="K66" t="s">
+        <v>408</v>
+      </c>
+      <c r="L66" t="s">
+        <v>409</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>401</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>410</v>
+      </c>
+      <c r="X66" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>413</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>414</v>
+      </c>
+      <c r="J67" t="s">
+        <v>415</v>
+      </c>
+      <c r="K67" t="s">
+        <v>416</v>
+      </c>
+      <c r="L67" t="s">
+        <v>417</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>418</v>
+      </c>
+      <c r="O67" t="s">
+        <v>146</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>419</v>
+      </c>
+      <c r="X67" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>423</v>
+      </c>
+      <c r="J68" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" t="s">
+        <v>425</v>
+      </c>
+      <c r="L68" t="s">
+        <v>426</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>427</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>428</v>
+      </c>
+      <c r="X68" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>431</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>432</v>
+      </c>
+      <c r="J69" t="s">
+        <v>433</v>
+      </c>
+      <c r="K69" t="s">
+        <v>434</v>
+      </c>
+      <c r="L69" t="s">
+        <v>435</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>436</v>
+      </c>
+      <c r="O69" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>438</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>439</v>
+      </c>
+      <c r="J70" t="s">
+        <v>440</v>
+      </c>
+      <c r="K70" t="s">
+        <v>441</v>
+      </c>
+      <c r="L70" t="s">
+        <v>442</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>436</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>443</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>444</v>
+      </c>
+      <c r="J71" t="s">
+        <v>445</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>135</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>436</v>
+      </c>
+      <c r="O71" t="s">
+        <v>58</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>446</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>447</v>
+      </c>
+      <c r="J72" t="s">
+        <v>448</v>
+      </c>
+      <c r="K72" t="s">
+        <v>449</v>
+      </c>
+      <c r="L72" t="s">
+        <v>450</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>436</v>
+      </c>
+      <c r="O72" t="s">
+        <v>58</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>452</v>
+      </c>
+      <c r="J73" t="s">
+        <v>453</v>
+      </c>
+      <c r="K73" t="s">
+        <v>454</v>
+      </c>
+      <c r="L73" t="s">
+        <v>455</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>456</v>
+      </c>
+      <c r="O73" t="s">
+        <v>58</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>457</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>458</v>
+      </c>
+      <c r="J74" t="s">
+        <v>459</v>
+      </c>
+      <c r="K74" t="s">
+        <v>460</v>
+      </c>
+      <c r="L74" t="s">
+        <v>461</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>456</v>
+      </c>
+      <c r="O74" t="s">
+        <v>76</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>462</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>463</v>
+      </c>
+      <c r="J75" t="s">
+        <v>464</v>
+      </c>
+      <c r="K75" t="s">
+        <v>465</v>
+      </c>
+      <c r="L75" t="s">
+        <v>466</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>456</v>
+      </c>
+      <c r="O75" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>467</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>468</v>
+      </c>
+      <c r="J76" t="s">
+        <v>469</v>
+      </c>
+      <c r="K76" t="s">
+        <v>470</v>
+      </c>
+      <c r="L76" t="s">
+        <v>471</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>456</v>
+      </c>
+      <c r="O76" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>472</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>473</v>
+      </c>
+      <c r="J77" t="s">
+        <v>474</v>
+      </c>
+      <c r="K77" t="s">
+        <v>475</v>
+      </c>
+      <c r="L77" t="s">
+        <v>476</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>456</v>
+      </c>
+      <c r="O77" t="s">
+        <v>83</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>478</v>
+      </c>
+      <c r="J78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K78" t="s">
+        <v>480</v>
+      </c>
+      <c r="L78" t="s">
+        <v>481</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>482</v>
+      </c>
+      <c r="O78" t="s">
+        <v>65</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>484</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>485</v>
+      </c>
+      <c r="J79" t="s">
+        <v>486</v>
+      </c>
+      <c r="K79" t="s">
+        <v>487</v>
+      </c>
+      <c r="L79" t="s">
+        <v>488</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>482</v>
+      </c>
+      <c r="O79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>489</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>490</v>
+      </c>
+      <c r="J80" t="s">
+        <v>491</v>
+      </c>
+      <c r="K80" t="s">
+        <v>492</v>
+      </c>
+      <c r="L80" t="s">
+        <v>493</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>494</v>
+      </c>
+      <c r="O80" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>495</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>496</v>
+      </c>
+      <c r="J81" t="s">
+        <v>497</v>
+      </c>
+      <c r="K81" t="s">
+        <v>498</v>
+      </c>
+      <c r="L81" t="s">
+        <v>499</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>482</v>
+      </c>
+      <c r="O81" t="s">
+        <v>58</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>500</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>501</v>
+      </c>
+      <c r="J82" t="s">
+        <v>502</v>
+      </c>
+      <c r="K82" t="s">
+        <v>503</v>
+      </c>
+      <c r="L82" t="s">
+        <v>504</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>494</v>
+      </c>
+      <c r="O82" t="s">
+        <v>76</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>506</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>507</v>
+      </c>
+      <c r="J83" t="s">
+        <v>508</v>
+      </c>
+      <c r="K83" t="s">
+        <v>509</v>
+      </c>
+      <c r="L83" t="s">
+        <v>510</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>511</v>
+      </c>
+      <c r="O83" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>512</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>513</v>
+      </c>
+      <c r="J84" t="s">
+        <v>514</v>
+      </c>
+      <c r="K84" t="s">
+        <v>515</v>
+      </c>
+      <c r="L84" t="s">
+        <v>516</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>511</v>
+      </c>
+      <c r="O84" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>517</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>518</v>
+      </c>
+      <c r="J85" t="s">
+        <v>519</v>
+      </c>
+      <c r="K85" t="s">
+        <v>520</v>
+      </c>
+      <c r="L85" t="s">
+        <v>521</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>522</v>
+      </c>
+      <c r="O85" t="s">
+        <v>83</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>523</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>524</v>
+      </c>
+      <c r="J86" t="s">
+        <v>525</v>
+      </c>
+      <c r="K86" t="s">
+        <v>526</v>
+      </c>
+      <c r="L86" t="s">
+        <v>527</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>522</v>
+      </c>
+      <c r="O86" t="s">
+        <v>65</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>528</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>529</v>
+      </c>
+      <c r="J87" t="s">
+        <v>530</v>
+      </c>
+      <c r="K87" t="s">
+        <v>531</v>
+      </c>
+      <c r="L87" t="s">
+        <v>532</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>533</v>
+      </c>
+      <c r="O87" t="s">
+        <v>146</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>534</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>535</v>
+      </c>
+      <c r="J88" t="s">
+        <v>536</v>
+      </c>
+      <c r="K88" t="s">
+        <v>537</v>
+      </c>
+      <c r="L88" t="s">
+        <v>538</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>533</v>
+      </c>
+      <c r="O88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>539</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>540</v>
+      </c>
+      <c r="J89" t="s">
+        <v>541</v>
+      </c>
+      <c r="K89" t="s">
+        <v>542</v>
+      </c>
+      <c r="L89" t="s">
+        <v>543</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>544</v>
+      </c>
+      <c r="O89" t="s">
+        <v>65</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>2</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>545</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>546</v>
+      </c>
+      <c r="J90" t="s">
+        <v>547</v>
+      </c>
+      <c r="K90" t="s">
+        <v>548</v>
+      </c>
+      <c r="L90" t="s">
+        <v>549</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>550</v>
+      </c>
+      <c r="O90" t="s">
+        <v>76</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>551</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>552</v>
+      </c>
+      <c r="J91" t="s">
+        <v>553</v>
+      </c>
+      <c r="K91" t="s">
+        <v>554</v>
+      </c>
+      <c r="L91" t="s">
+        <v>555</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>550</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>557</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>558</v>
+      </c>
+      <c r="J92" t="s">
+        <v>559</v>
+      </c>
+      <c r="K92" t="s">
+        <v>560</v>
+      </c>
+      <c r="L92" t="s">
+        <v>561</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>562</v>
+      </c>
+      <c r="O92" t="s">
+        <v>76</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>563</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>564</v>
+      </c>
+      <c r="J93" t="s">
+        <v>565</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>562</v>
+      </c>
+      <c r="O93" t="s">
+        <v>76</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>566</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>567</v>
+      </c>
+      <c r="J94" t="s">
+        <v>568</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>562</v>
+      </c>
+      <c r="O94" t="s">
+        <v>65</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>2</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>569</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>570</v>
+      </c>
+      <c r="J95" t="s">
+        <v>571</v>
+      </c>
+      <c r="K95" t="s">
+        <v>572</v>
+      </c>
+      <c r="L95" t="s">
+        <v>573</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>574</v>
+      </c>
+      <c r="O95" t="s">
+        <v>58</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>575</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>576</v>
+      </c>
+      <c r="J96" t="s">
+        <v>577</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>574</v>
+      </c>
+      <c r="O96" t="s">
+        <v>58</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>578</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>579</v>
+      </c>
+      <c r="J97" t="s">
+        <v>580</v>
+      </c>
+      <c r="K97" t="s">
+        <v>581</v>
+      </c>
+      <c r="L97" t="s">
+        <v>582</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>583</v>
+      </c>
+      <c r="O97" t="s">
+        <v>58</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>585</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>586</v>
+      </c>
+      <c r="J98" t="s">
+        <v>587</v>
+      </c>
+      <c r="K98" t="s"/>
+      <c r="L98" t="s">
+        <v>135</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>588</v>
+      </c>
+      <c r="O98" t="s">
+        <v>83</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>589</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>590</v>
+      </c>
+      <c r="J99" t="s">
+        <v>591</v>
+      </c>
+      <c r="K99" t="s"/>
+      <c r="L99" t="s">
+        <v>135</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>592</v>
+      </c>
+      <c r="O99" t="s">
+        <v>76</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>593</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>594</v>
+      </c>
+      <c r="J100" t="s">
+        <v>595</v>
+      </c>
+      <c r="K100" t="s">
+        <v>596</v>
+      </c>
+      <c r="L100" t="s">
+        <v>597</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>592</v>
+      </c>
+      <c r="O100" t="s">
+        <v>76</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>599</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>600</v>
+      </c>
+      <c r="J101" t="s">
+        <v>601</v>
+      </c>
+      <c r="K101" t="s">
+        <v>602</v>
+      </c>
+      <c r="L101" t="s">
+        <v>603</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>604</v>
+      </c>
+      <c r="O101" t="s">
+        <v>58</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>605</v>
+      </c>
+      <c r="X101" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>608</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>609</v>
+      </c>
+      <c r="J102" t="s">
+        <v>610</v>
+      </c>
+      <c r="K102" t="s">
+        <v>611</v>
+      </c>
+      <c r="L102" t="s">
+        <v>612</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>613</v>
+      </c>
+      <c r="O102" t="s">
+        <v>58</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>614</v>
+      </c>
+      <c r="X102" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>617</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>618</v>
+      </c>
+      <c r="J103" t="s">
+        <v>619</v>
+      </c>
+      <c r="K103" t="s"/>
+      <c r="L103" t="s">
+        <v>135</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>613</v>
+      </c>
+      <c r="O103" t="s">
+        <v>58</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>620</v>
+      </c>
+      <c r="X103" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>622</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>623</v>
+      </c>
+      <c r="J104" t="s">
+        <v>624</v>
+      </c>
+      <c r="K104" t="s">
+        <v>625</v>
+      </c>
+      <c r="L104" t="s">
+        <v>626</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>627</v>
+      </c>
+      <c r="O104" t="s">
+        <v>76</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>628</v>
+      </c>
+      <c r="X104" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>631</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>632</v>
+      </c>
+      <c r="J105" t="s">
+        <v>633</v>
+      </c>
+      <c r="K105" t="s"/>
+      <c r="L105" t="s"/>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>627</v>
+      </c>
+      <c r="O105" t="s">
+        <v>83</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>3</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>634</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>635</v>
+      </c>
+      <c r="J106" t="s">
+        <v>636</v>
+      </c>
+      <c r="K106" t="s"/>
+      <c r="L106" t="s"/>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>637</v>
+      </c>
+      <c r="O106" t="s">
+        <v>83</v>
+      </c>
+      <c r="P106" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>638</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>639</v>
+      </c>
+      <c r="J107" t="s">
+        <v>640</v>
+      </c>
+      <c r="K107" t="s"/>
+      <c r="L107" t="s">
+        <v>135</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>641</v>
+      </c>
+      <c r="O107" t="s">
+        <v>76</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>4</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>642</v>
+      </c>
+      <c r="X107" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>644</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>645</v>
+      </c>
+      <c r="J108" t="s">
+        <v>646</v>
+      </c>
+      <c r="K108" t="s"/>
+      <c r="L108" t="s">
+        <v>135</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>641</v>
+      </c>
+      <c r="O108" t="s">
+        <v>146</v>
+      </c>
+      <c r="P108" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>642</v>
+      </c>
+      <c r="X108" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>647</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>648</v>
+      </c>
+      <c r="J109" t="s">
+        <v>649</v>
+      </c>
+      <c r="K109" t="s"/>
+      <c r="L109" t="s">
+        <v>135</v>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>641</v>
+      </c>
+      <c r="O109" t="s">
+        <v>58</v>
+      </c>
+      <c r="P109" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>642</v>
+      </c>
+      <c r="X109" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>650</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>651</v>
+      </c>
+      <c r="J110" t="s">
+        <v>652</v>
+      </c>
+      <c r="K110" t="s"/>
+      <c r="L110" t="s"/>
+      <c r="M110" t="n">
+        <v>3</v>
+      </c>
+      <c r="N110" t="s">
+        <v>641</v>
+      </c>
+      <c r="O110" t="s">
+        <v>65</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>4</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>653</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>654</v>
+      </c>
+      <c r="J111" t="s">
+        <v>655</v>
+      </c>
+      <c r="K111" t="s"/>
+      <c r="L111" t="s"/>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>656</v>
+      </c>
+      <c r="O111" t="s">
+        <v>58</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>2</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>657</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>658</v>
+      </c>
+      <c r="J112" t="s">
+        <v>659</v>
+      </c>
+      <c r="K112" t="s">
+        <v>660</v>
+      </c>
+      <c r="L112" t="s">
+        <v>661</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>662</v>
+      </c>
+      <c r="O112" t="s">
+        <v>58</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>664</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>665</v>
+      </c>
+      <c r="J113" t="s">
+        <v>666</v>
+      </c>
+      <c r="K113" t="s">
+        <v>667</v>
+      </c>
+      <c r="L113" t="s">
+        <v>668</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4</v>
+      </c>
+      <c r="N113" t="s">
+        <v>669</v>
+      </c>
+      <c r="O113" t="s">
+        <v>76</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>4</v>
+      </c>
+      <c r="R113" t="n">
+        <v>4</v>
+      </c>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>670</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>671</v>
+      </c>
+      <c r="J114" t="s">
+        <v>672</v>
+      </c>
+      <c r="K114" t="s"/>
+      <c r="L114" t="s"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
+        <v>673</v>
+      </c>
+      <c r="O114" t="s">
+        <v>65</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>674</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>675</v>
+      </c>
+      <c r="J115" t="s">
+        <v>676</v>
+      </c>
+      <c r="K115" t="s"/>
+      <c r="L115" t="s"/>
+      <c r="M115" t="n">
+        <v>3</v>
+      </c>
+      <c r="N115" t="s">
+        <v>673</v>
+      </c>
+      <c r="O115" t="s">
+        <v>76</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>2</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>677</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>678</v>
+      </c>
+      <c r="J116" t="s">
+        <v>679</v>
+      </c>
+      <c r="K116" t="s">
+        <v>680</v>
+      </c>
+      <c r="L116" t="s">
+        <v>681</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="s">
+        <v>682</v>
+      </c>
+      <c r="O116" t="s">
+        <v>83</v>
+      </c>
+      <c r="P116" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>4</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>4</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>683</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>684</v>
+      </c>
+      <c r="J117" t="s">
+        <v>685</v>
+      </c>
+      <c r="K117" t="s">
+        <v>686</v>
+      </c>
+      <c r="L117" t="s">
+        <v>687</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="s"/>
+      <c r="O117" t="s"/>
+      <c r="P117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>1</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>688</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>689</v>
+      </c>
+      <c r="J118" t="s">
+        <v>690</v>
+      </c>
+      <c r="K118" t="s">
+        <v>691</v>
+      </c>
+      <c r="L118" t="s">
+        <v>692</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>693</v>
+      </c>
+      <c r="O118" t="s">
+        <v>58</v>
+      </c>
+      <c r="P118" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>2</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>694</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>695</v>
+      </c>
+      <c r="J119" t="s">
+        <v>696</v>
+      </c>
+      <c r="K119" t="s">
+        <v>697</v>
+      </c>
+      <c r="L119" t="s">
+        <v>698</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="s"/>
+      <c r="O119" t="s"/>
+      <c r="P119" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>3</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B120" t="s"/>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>119</v>
+      </c>
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+      <c r="F120" t="s">
+        <v>699</v>
+      </c>
+      <c r="G120" t="s">
+        <v>46</v>
+      </c>
+      <c r="H120" t="s">
+        <v>47</v>
+      </c>
+      <c r="I120" t="s">
+        <v>700</v>
+      </c>
+      <c r="J120" t="s">
+        <v>701</v>
+      </c>
+      <c r="K120" t="s">
+        <v>702</v>
+      </c>
+      <c r="L120" t="s">
+        <v>703</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="s">
+        <v>704</v>
+      </c>
+      <c r="O120" t="s">
+        <v>58</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="s"/>
+      <c r="R120" t="s"/>
+      <c r="S120" t="n">
+        <v>1</v>
+      </c>
+      <c r="T120" t="s"/>
+      <c r="U120" t="n">
+        <v>3</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s"/>
+      <c r="X120" t="s"/>
+      <c r="Y120" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>15774</v>
+      </c>
+      <c r="B121" t="s"/>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>120</v>
+      </c>
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+      <c r="F121" t="s">
+        <v>706</v>
+      </c>
+      <c r="G121" t="s">
+        <v>46</v>
+      </c>
+      <c r="H121" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" t="s">
+        <v>707</v>
+      </c>
+      <c r="J121" t="s">
+        <v>708</v>
+      </c>
+      <c r="K121" t="s">
+        <v>709</v>
+      </c>
+      <c r="L121" t="s">
+        <v>710</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="s">
+        <v>711</v>
+      </c>
+      <c r="O121" t="s">
+        <v>83</v>
+      </c>
+      <c r="P121" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="s"/>
+      <c r="R121" t="s"/>
+      <c r="S121" t="n">
+        <v>1</v>
+      </c>
+      <c r="T121" t="s"/>
+      <c r="U121" t="n">
+        <v>5</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="s"/>
+      <c r="X121" t="s"/>
+      <c r="Y121" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
